--- a/data/trans_bre/P38C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P38C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,37%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 15,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 25,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 30,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 66,36</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,94; 18,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 16,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,57; 28,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 27,56</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 8,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 12,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 10,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 16,95</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,87%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 6,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 26,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 40,44</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 4,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 4,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 4,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 5,16</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,49%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 2,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 2,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 2,17</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 7,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 12,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 9,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,19; 16,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>12,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>25,64%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 25,25</t>
+          <t>1,25; 24,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 66,36</t>
+          <t>1,9; 58,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 16,67</t>
+          <t>-22,39; 13,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 27,56</t>
+          <t>-33,96; 21,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 12,39</t>
+          <t>2,56; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 16,95</t>
+          <t>3,24; 15,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>28,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>45,85%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 26,53</t>
+          <t>3,91; 59,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,14 +804,14 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 40,44</t>
+          <t>4,47; 190,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,65</t>
+          <t>-0,85; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,14 +864,14 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,16</t>
+          <t>-0,91; 4,99</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,47</t>
+          <t>-1,3; 3,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,06</t>
+          <t>1,0; 6,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,57</t>
+          <t>-1,32; 3,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,17</t>
+          <t>1,02; 6,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>-1,87%</t>
         </is>
       </c>
     </row>
@@ -969,34 +969,94 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,64; 3,01</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,24</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,13; 7,79</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 12,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 28,43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,96; 9,61</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 16,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 48,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1006,6 +1066,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P38C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 15,89</t>
+          <t>2,38; 15,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 24,27</t>
+          <t>0,76; 23,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 30,12</t>
+          <t>3,77; 30,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 58,28</t>
+          <t>1,74; 55,7</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 18,69</t>
+          <t>8,3; 18,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 13,96</t>
+          <t>-23,58; 13,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 28,62</t>
+          <t>11,56; 29,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 21,62</t>
+          <t>-36,91; 21,46</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,12</t>
+          <t>-0,01; 8,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,82</t>
+          <t>2,43; 11,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 10,31</t>
+          <t>-0,01; 10,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 15,99</t>
+          <t>3,02; 16,01</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,66</t>
+          <t>-0,5; 6,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 59,42</t>
+          <t>3,56; 64,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,87</t>
+          <t>-0,51; 8,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 190,25</t>
+          <t>4,17; 249,49</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,45</t>
+          <t>-2,43; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 4,49</t>
+          <t>-0,82; 4,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,98</t>
+          <t>-2,59; 4,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,99</t>
+          <t>-0,89; 5,36</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,6</t>
+          <t>-1,47; 3,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,02</t>
+          <t>1,08; 5,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,8</t>
+          <t>-1,46; 3,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,48</t>
+          <t>1,11; 5,99</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,01</t>
+          <t>-1,62; 3,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,24</t>
+          <t>-3,65; -0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,14</t>
+          <t>-1,64; 3,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,25</t>
+          <t>-3,69; -0,06</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,79</t>
+          <t>4,26; 7,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,95; 28,43</t>
+          <t>4,76; 28,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,61</t>
+          <t>5,19; 9,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 48,71</t>
+          <t>6,03; 51,8</t>
         </is>
       </c>
     </row>
